--- a/t-results.xlsx
+++ b/t-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c63a7df432fff15/Desktop/workshops/GitHub_23/mev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_09045FDA8F79A8D366075C52F37BD2729AC2C356" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE3A33FD-2DD1-4432-80CA-310637357876}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_64155DD28F79A8D366075C52F37BD2727AC8F62F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58585291-E5BF-4A40-90C6-6815231A0525}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
   <si>
     <t>p</t>
   </si>
@@ -160,6 +160,9 @@
     <t>0.116</t>
   </si>
   <si>
+    <t>0.061</t>
+  </si>
+  <si>
     <t>0.103</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>0.338</t>
   </si>
   <si>
+    <t>0.384</t>
+  </si>
+  <si>
     <t>0.068</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t>0.012</t>
   </si>
   <si>
+    <t>0.511</t>
+  </si>
+  <si>
     <t>0.431</t>
   </si>
   <si>
@@ -196,6 +205,9 @@
     <t>0.105</t>
   </si>
   <si>
+    <t>0.134</t>
+  </si>
+  <si>
     <t>0.027</t>
   </si>
   <si>
@@ -208,6 +220,9 @@
     <t>0.371</t>
   </si>
   <si>
+    <t>1.076</t>
+  </si>
+  <si>
     <t>0.718</t>
   </si>
   <si>
@@ -220,6 +235,9 @@
     <t>0.072</t>
   </si>
   <si>
+    <t>0.054</t>
+  </si>
+  <si>
     <t>0.886</t>
   </si>
   <si>
@@ -238,6 +256,9 @@
     <t>0.101</t>
   </si>
   <si>
+    <t>0.139</t>
+  </si>
+  <si>
     <t>0.227</t>
   </si>
   <si>
@@ -250,6 +271,9 @@
     <t>0.283</t>
   </si>
   <si>
+    <t>0.203</t>
+  </si>
+  <si>
     <t>0.462</t>
   </si>
   <si>
@@ -262,6 +286,9 @@
     <t>0.238</t>
   </si>
   <si>
+    <t>0.128</t>
+  </si>
+  <si>
     <t>0.627</t>
   </si>
   <si>
@@ -274,6 +301,9 @@
     <t>0.066</t>
   </si>
   <si>
+    <t>0.057</t>
+  </si>
+  <si>
     <t>0.733</t>
   </si>
   <si>
@@ -286,6 +316,9 @@
     <t>0.152</t>
   </si>
   <si>
+    <t>0.11</t>
+  </si>
+  <si>
     <t>0.767</t>
   </si>
   <si>
@@ -310,6 +343,9 @@
     <t>0.086</t>
   </si>
   <si>
+    <t>0.161</t>
+  </si>
+  <si>
     <t>0.92</t>
   </si>
   <si>
@@ -319,12 +355,18 @@
     <t>0.181</t>
   </si>
   <si>
+    <t>0.098</t>
+  </si>
+  <si>
     <t>0.78</t>
   </si>
   <si>
     <t>-0.076</t>
   </si>
   <si>
+    <t>0.053</t>
+  </si>
+  <si>
     <t>0.974</t>
   </si>
   <si>
@@ -337,6 +379,9 @@
     <t>0.18</t>
   </si>
   <si>
+    <t>0.104</t>
+  </si>
+  <si>
     <t>0.45</t>
   </si>
   <si>
@@ -346,10 +391,10 @@
     <t>0.107</t>
   </si>
   <si>
+    <t>0.131</t>
+  </si>
+  <si>
     <t>0.122</t>
-  </si>
-  <si>
-    <t>0.139</t>
   </si>
   <si>
     <t>0.314</t>
@@ -719,9 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -877,7 +920,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -888,19 +931,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -911,19 +954,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -934,19 +977,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -957,19 +1000,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -980,19 +1023,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -1003,19 +1046,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1026,19 +1069,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1049,19 +1092,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1072,19 +1115,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1095,19 +1138,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1118,19 +1161,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1141,19 +1184,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -1164,19 +1207,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1187,19 +1230,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1210,19 +1253,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1233,19 +1276,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1256,19 +1299,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1279,19 +1322,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1302,19 +1345,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>

--- a/t-results.xlsx
+++ b/t-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c63a7df432fff15/Desktop/workshops/GitHub_23/mev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_64155DD28F79A8D366075C52F37BD2727AC8F62F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58585291-E5BF-4A40-90C6-6815231A0525}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FBC4BFDF8F79A8D366075C52F37BD2724A456738" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42957623-6B8D-45B3-BC64-9EC8534A1FBE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="135">
   <si>
     <t>p</t>
   </si>
@@ -85,7 +85,7 @@
     <t>0.051</t>
   </si>
   <si>
-    <t>0.071</t>
+    <t>-2.646</t>
   </si>
   <si>
     <t>0.673</t>
@@ -100,7 +100,7 @@
     <t>0.223</t>
   </si>
   <si>
-    <t>0.113</t>
+    <t>-2.177</t>
   </si>
   <si>
     <t>0.023</t>
@@ -115,7 +115,7 @@
     <t>-0.029</t>
   </si>
   <si>
-    <t>1.264</t>
+    <t>0.235</t>
   </si>
   <si>
     <t>0.292</t>
@@ -130,7 +130,7 @@
     <t>0.081</t>
   </si>
   <si>
-    <t>0.171</t>
+    <t>-1.766</t>
   </si>
   <si>
     <t>0.261</t>
@@ -145,7 +145,7 @@
     <t>0.272</t>
   </si>
   <si>
-    <t>0.182</t>
+    <t>-1.702</t>
   </si>
   <si>
     <t>0.537</t>
@@ -160,7 +160,7 @@
     <t>0.116</t>
   </si>
   <si>
-    <t>0.061</t>
+    <t>-2.796</t>
   </si>
   <si>
     <t>0.103</t>
@@ -175,7 +175,7 @@
     <t>0.338</t>
   </si>
   <si>
-    <t>0.384</t>
+    <t>-0.957</t>
   </si>
   <si>
     <t>0.068</t>
@@ -190,7 +190,7 @@
     <t>0.012</t>
   </si>
   <si>
-    <t>0.511</t>
+    <t>-0.671</t>
   </si>
   <si>
     <t>0.431</t>
@@ -205,7 +205,7 @@
     <t>0.105</t>
   </si>
   <si>
-    <t>0.134</t>
+    <t>-2.007</t>
   </si>
   <si>
     <t>0.027</t>
@@ -220,7 +220,7 @@
     <t>0.371</t>
   </si>
   <si>
-    <t>1.076</t>
+    <t>0.073</t>
   </si>
   <si>
     <t>0.718</t>
@@ -235,7 +235,7 @@
     <t>0.072</t>
   </si>
   <si>
-    <t>0.054</t>
+    <t>-2.92</t>
   </si>
   <si>
     <t>0.886</t>
@@ -247,6 +247,9 @@
     <t>-0.17</t>
   </si>
   <si>
+    <t>-2.254</t>
+  </si>
+  <si>
     <t>0.407</t>
   </si>
   <si>
@@ -256,150 +259,159 @@
     <t>0.101</t>
   </si>
   <si>
+    <t>-1.975</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>-0.067</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>-1.596</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>-0.108</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>-2.059</t>
+  </si>
+  <si>
+    <t>0.627</t>
+  </si>
+  <si>
+    <t>-0.022</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>-2.868</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>-0.032</t>
+  </si>
+  <si>
+    <t>-0.216</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>-2.207</t>
+  </si>
+  <si>
+    <t>0.767</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>-0.148</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>-2.269</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>-0.089</t>
+  </si>
+  <si>
+    <t>-0.264</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>-1.827</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>-2.319</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>-0.076</t>
+  </si>
+  <si>
+    <t>-2.947</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>-0.003</t>
+  </si>
+  <si>
+    <t>-0.187</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>-2.264</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>-0.242</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>-2.032</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
     <t>0.139</t>
   </si>
   <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.108</t>
-  </si>
-  <si>
-    <t>-0.067</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>0.203</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t>-0.108</t>
-  </si>
-  <si>
-    <t>0.238</t>
-  </si>
-  <si>
-    <t>0.128</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>-0.022</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>0.057</t>
-  </si>
-  <si>
-    <t>0.733</t>
-  </si>
-  <si>
-    <t>-0.032</t>
-  </si>
-  <si>
-    <t>-0.216</t>
-  </si>
-  <si>
-    <t>0.152</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
-    <t>-0.148</t>
-  </si>
-  <si>
-    <t>0.201</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>-0.089</t>
-  </si>
-  <si>
-    <t>-0.264</t>
-  </si>
-  <si>
-    <t>0.086</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>-0.076</t>
-  </si>
-  <si>
-    <t>0.053</t>
-  </si>
-  <si>
-    <t>0.974</t>
-  </si>
-  <si>
-    <t>-0.003</t>
-  </si>
-  <si>
-    <t>-0.187</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.104</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>-0.242</t>
-  </si>
-  <si>
-    <t>0.107</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>0.122</t>
-  </si>
-  <si>
     <t>0.314</t>
   </si>
   <si>
+    <t>-1.14</t>
+  </si>
+  <si>
     <t>0.788</t>
   </si>
   <si>
@@ -410,6 +422,9 @@
   </si>
   <si>
     <t>0.149</t>
+  </si>
+  <si>
+    <t>-2.288</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1073,7 @@
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1069,19 +1084,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1092,19 +1107,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -1115,19 +1130,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -1138,19 +1153,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1161,19 +1176,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1184,19 +1199,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -1207,19 +1222,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1230,19 +1245,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1253,19 +1268,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1276,19 +1291,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -1299,19 +1314,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -1322,19 +1337,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -1345,19 +1360,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
